--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Rgmb</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H2">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.86946760153019</v>
+        <v>8.646358666666666</v>
       </c>
       <c r="N2">
-        <v>7.86946760153019</v>
+        <v>25.939076</v>
       </c>
       <c r="O2">
-        <v>0.220538006231642</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="P2">
-        <v>0.220538006231642</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="Q2">
-        <v>6.55936509060575</v>
+        <v>22.30825095478044</v>
       </c>
       <c r="R2">
-        <v>6.55936509060575</v>
+        <v>200.774258593024</v>
       </c>
       <c r="S2">
-        <v>0.04054295979333192</v>
+        <v>0.0685133049517332</v>
       </c>
       <c r="T2">
-        <v>0.04054295979333192</v>
+        <v>0.0685133049517332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H3">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.12756202599544</v>
+        <v>7.131051333333333</v>
       </c>
       <c r="N3">
-        <v>7.12756202599544</v>
+        <v>21.393154</v>
       </c>
       <c r="O3">
-        <v>0.1997464629246007</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="P3">
-        <v>0.1997464629246007</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="Q3">
-        <v>5.940971346695787</v>
+        <v>18.39864489183289</v>
       </c>
       <c r="R3">
-        <v>5.940971346695787</v>
+        <v>165.587804026496</v>
       </c>
       <c r="S3">
-        <v>0.03672071292195458</v>
+        <v>0.05650608695087639</v>
       </c>
       <c r="T3">
-        <v>0.03672071292195458</v>
+        <v>0.0565060869508764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H4">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.42999662176467</v>
+        <v>1.531490333333333</v>
       </c>
       <c r="N4">
-        <v>4.42999662176467</v>
+        <v>4.594471</v>
       </c>
       <c r="O4">
-        <v>0.1241485030559016</v>
+        <v>0.0340102626143302</v>
       </c>
       <c r="P4">
-        <v>0.1241485030559016</v>
+        <v>0.03401026261433021</v>
       </c>
       <c r="Q4">
-        <v>3.692494418129933</v>
+        <v>3.951359411278222</v>
       </c>
       <c r="R4">
-        <v>3.692494418129933</v>
+        <v>35.562234701504</v>
       </c>
       <c r="S4">
-        <v>0.02282304013627017</v>
+        <v>0.01213545126722689</v>
       </c>
       <c r="T4">
-        <v>0.02282304013627017</v>
+        <v>0.01213545126722689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H5">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.2560187550456</v>
+        <v>4.621346333333332</v>
       </c>
       <c r="N5">
-        <v>16.2560187550456</v>
+        <v>13.864039</v>
       </c>
       <c r="O5">
-        <v>0.4555670277878557</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="P5">
-        <v>0.4555670277878557</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="Q5">
-        <v>13.54973008762941</v>
+        <v>11.92341860052622</v>
       </c>
       <c r="R5">
-        <v>13.54973008762941</v>
+        <v>107.310767404736</v>
       </c>
       <c r="S5">
-        <v>0.08374989874249054</v>
+        <v>0.0366193125718789</v>
       </c>
       <c r="T5">
-        <v>0.08374989874249054</v>
+        <v>0.03661931257187891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73799040857009</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H6">
-        <v>1.73799040857009</v>
+        <v>7.740224</v>
       </c>
       <c r="I6">
-        <v>0.3833212799373755</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J6">
-        <v>0.3833212799373755</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.86946760153019</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N6">
-        <v>7.86946760153019</v>
+        <v>1.843537</v>
       </c>
       <c r="O6">
-        <v>0.220538006231642</v>
+        <v>0.0136466586706575</v>
       </c>
       <c r="P6">
-        <v>0.220538006231642</v>
+        <v>0.01364665867065751</v>
       </c>
       <c r="Q6">
-        <v>13.67705921201254</v>
+        <v>1.585487703587555</v>
       </c>
       <c r="R6">
-        <v>13.67705921201254</v>
+        <v>14.269389332288</v>
       </c>
       <c r="S6">
-        <v>0.08453691082354989</v>
+        <v>0.004869364377929398</v>
       </c>
       <c r="T6">
-        <v>0.08453691082354989</v>
+        <v>0.004869364377929399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73799040857009</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H7">
-        <v>1.73799040857009</v>
+        <v>7.740224</v>
       </c>
       <c r="I7">
-        <v>0.3833212799373755</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J7">
-        <v>0.3833212799373755</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.12756202599544</v>
+        <v>22.48548233333333</v>
       </c>
       <c r="N7">
-        <v>7.12756202599544</v>
+        <v>67.456447</v>
       </c>
       <c r="O7">
-        <v>0.1997464629246007</v>
+        <v>0.4993418126917433</v>
       </c>
       <c r="P7">
-        <v>0.1997464629246007</v>
+        <v>0.4993418126917434</v>
       </c>
       <c r="Q7">
-        <v>12.38763443766847</v>
+        <v>58.01422333601422</v>
       </c>
       <c r="R7">
-        <v>12.38763443766847</v>
+        <v>522.128010024128</v>
       </c>
       <c r="S7">
-        <v>0.07656706983122147</v>
+        <v>0.1781738148371757</v>
       </c>
       <c r="T7">
-        <v>0.07656706983122147</v>
+        <v>0.1781738148371758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H8">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.42999662176467</v>
+        <v>8.646358666666666</v>
       </c>
       <c r="N8">
-        <v>4.42999662176467</v>
+        <v>25.939076</v>
       </c>
       <c r="O8">
-        <v>0.1241485030559016</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="P8">
-        <v>0.1241485030559016</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="Q8">
-        <v>7.699291638624897</v>
+        <v>15.43392891141244</v>
       </c>
       <c r="R8">
-        <v>7.699291638624897</v>
+        <v>138.905360202712</v>
       </c>
       <c r="S8">
-        <v>0.04758876309369738</v>
+        <v>0.0474008240383532</v>
       </c>
       <c r="T8">
-        <v>0.04758876309369738</v>
+        <v>0.0474008240383532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H9">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.2560187550456</v>
+        <v>7.131051333333333</v>
       </c>
       <c r="N9">
-        <v>16.2560187550456</v>
+        <v>21.393154</v>
       </c>
       <c r="O9">
-        <v>0.4555670277878557</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="P9">
-        <v>0.4555670277878557</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="Q9">
-        <v>28.25280467780474</v>
+        <v>12.72907400506089</v>
       </c>
       <c r="R9">
-        <v>28.25280467780474</v>
+        <v>114.561666045548</v>
       </c>
       <c r="S9">
-        <v>0.1746285361889068</v>
+        <v>0.03909364884005089</v>
       </c>
       <c r="T9">
-        <v>0.1746285361889068</v>
+        <v>0.0390936488400509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.96251935991277</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H10">
-        <v>1.96251935991277</v>
+        <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J10">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>7.86946760153019</v>
+        <v>1.531490333333333</v>
       </c>
       <c r="N10">
-        <v>7.86946760153019</v>
+        <v>4.594471</v>
       </c>
       <c r="O10">
-        <v>0.220538006231642</v>
+        <v>0.0340102626143302</v>
       </c>
       <c r="P10">
-        <v>0.220538006231642</v>
+        <v>0.03401026261433021</v>
       </c>
       <c r="Q10">
-        <v>15.44398252020931</v>
+        <v>2.733741895800223</v>
       </c>
       <c r="R10">
-        <v>15.44398252020931</v>
+        <v>24.603677062202</v>
       </c>
       <c r="S10">
-        <v>0.09545813561476015</v>
+        <v>0.008395893185259054</v>
       </c>
       <c r="T10">
-        <v>0.09545813561476015</v>
+        <v>0.008395893185259056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.96251935991277</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H11">
-        <v>1.96251935991277</v>
+        <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J11">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.12756202599544</v>
+        <v>4.621346333333332</v>
       </c>
       <c r="N11">
-        <v>7.12756202599544</v>
+        <v>13.864039</v>
       </c>
       <c r="O11">
-        <v>0.1997464629246007</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="P11">
-        <v>0.1997464629246007</v>
+        <v>0.1026276163861554</v>
       </c>
       <c r="Q11">
-        <v>13.98797846499514</v>
+        <v>8.249198712824221</v>
       </c>
       <c r="R11">
-        <v>13.98797846499514</v>
+        <v>74.24278841541799</v>
       </c>
       <c r="S11">
-        <v>0.08645868017142469</v>
+        <v>0.02533501475148406</v>
       </c>
       <c r="T11">
-        <v>0.08645868017142469</v>
+        <v>0.02533501475148407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.96251935991277</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H12">
-        <v>1.96251935991277</v>
+        <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J12">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>4.42999662176467</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N12">
-        <v>4.42999662176467</v>
+        <v>1.843537</v>
       </c>
       <c r="O12">
-        <v>0.1241485030559016</v>
+        <v>0.0136466586706575</v>
       </c>
       <c r="P12">
-        <v>0.1241485030559016</v>
+        <v>0.01364665867065751</v>
       </c>
       <c r="Q12">
-        <v>8.693954134561334</v>
+        <v>1.096917214921556</v>
       </c>
       <c r="R12">
-        <v>8.693954134561334</v>
+        <v>9.872254934294</v>
       </c>
       <c r="S12">
-        <v>0.05373669982593407</v>
+        <v>0.003368862211791721</v>
       </c>
       <c r="T12">
-        <v>0.05373669982593407</v>
+        <v>0.003368862211791722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.785020666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.355062</v>
+      </c>
+      <c r="I13">
+        <v>0.2468635211808523</v>
+      </c>
+      <c r="J13">
+        <v>0.2468635211808523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N13">
+        <v>67.456447</v>
+      </c>
+      <c r="O13">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P13">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q13">
+        <v>40.13705066496823</v>
+      </c>
+      <c r="R13">
+        <v>361.233455984714</v>
+      </c>
+      <c r="S13">
+        <v>0.1232692781539134</v>
+      </c>
+      <c r="T13">
+        <v>0.1232692781539134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.196858</v>
+      </c>
+      <c r="I14">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J14">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.646358666666666</v>
+      </c>
+      <c r="N14">
+        <v>25.939076</v>
+      </c>
+      <c r="O14">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="P14">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="Q14">
+        <v>0.5673682914675555</v>
+      </c>
+      <c r="R14">
+        <v>5.106314623207999</v>
+      </c>
+      <c r="S14">
+        <v>0.001742506700863993</v>
+      </c>
+      <c r="T14">
+        <v>0.001742506700863993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.196858</v>
+      </c>
+      <c r="I15">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J15">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.131051333333333</v>
+      </c>
+      <c r="N15">
+        <v>21.393154</v>
+      </c>
+      <c r="O15">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="P15">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="Q15">
+        <v>0.4679348344591111</v>
+      </c>
+      <c r="R15">
+        <v>4.211413510132</v>
+      </c>
+      <c r="S15">
+        <v>0.001437125755659736</v>
+      </c>
+      <c r="T15">
+        <v>0.001437125755659736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.196858</v>
+      </c>
+      <c r="I16">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J16">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.531490333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.594471</v>
+      </c>
+      <c r="O16">
+        <v>0.0340102626143302</v>
+      </c>
+      <c r="P16">
+        <v>0.03401026261433021</v>
+      </c>
+      <c r="Q16">
+        <v>0.1004953746797778</v>
+      </c>
+      <c r="R16">
+        <v>0.9044583721180001</v>
+      </c>
+      <c r="S16">
+        <v>0.0003086423164967515</v>
+      </c>
+      <c r="T16">
+        <v>0.0003086423164967515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.196858</v>
+      </c>
+      <c r="I17">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J17">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N17">
+        <v>13.864039</v>
+      </c>
+      <c r="O17">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P17">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q17">
+        <v>0.3032496654957778</v>
+      </c>
+      <c r="R17">
+        <v>2.729246989462</v>
+      </c>
+      <c r="S17">
+        <v>0.0009313431541871317</v>
+      </c>
+      <c r="T17">
+        <v>0.0009313431541871318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.196858</v>
+      </c>
+      <c r="I18">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J18">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.843537</v>
+      </c>
+      <c r="O18">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P18">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q18">
+        <v>0.04032388963844444</v>
+      </c>
+      <c r="R18">
+        <v>0.362915006746</v>
+      </c>
+      <c r="S18">
+        <v>0.0001238430997230087</v>
+      </c>
+      <c r="T18">
+        <v>0.0001238430997230087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="H13">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="I13">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="J13">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.2560187550456</v>
-      </c>
-      <c r="N13">
-        <v>16.2560187550456</v>
-      </c>
-      <c r="O13">
-        <v>0.4555670277878557</v>
-      </c>
-      <c r="P13">
-        <v>0.4555670277878557</v>
-      </c>
-      <c r="Q13">
-        <v>31.90275152188207</v>
-      </c>
-      <c r="R13">
-        <v>31.90275152188207</v>
-      </c>
-      <c r="S13">
-        <v>0.1971885928564584</v>
-      </c>
-      <c r="T13">
-        <v>0.1971885928564584</v>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.196858</v>
+      </c>
+      <c r="I19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N19">
+        <v>67.456447</v>
+      </c>
+      <c r="O19">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P19">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q19">
+        <v>1.475482360391778</v>
+      </c>
+      <c r="R19">
+        <v>13.279341243526</v>
+      </c>
+      <c r="S19">
+        <v>0.00453151495889741</v>
+      </c>
+      <c r="T19">
+        <v>0.00453151495889741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.660166</v>
+      </c>
+      <c r="H20">
+        <v>1.980498</v>
+      </c>
+      <c r="I20">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J20">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.646358666666666</v>
+      </c>
+      <c r="N20">
+        <v>25.939076</v>
+      </c>
+      <c r="O20">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="P20">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="Q20">
+        <v>5.708032015538667</v>
+      </c>
+      <c r="R20">
+        <v>51.372288139848</v>
+      </c>
+      <c r="S20">
+        <v>0.01753056028227319</v>
+      </c>
+      <c r="T20">
+        <v>0.01753056028227319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.660166</v>
+      </c>
+      <c r="H21">
+        <v>1.980498</v>
+      </c>
+      <c r="I21">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J21">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.131051333333333</v>
+      </c>
+      <c r="N21">
+        <v>21.393154</v>
+      </c>
+      <c r="O21">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="P21">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="Q21">
+        <v>4.707677634521334</v>
+      </c>
+      <c r="R21">
+        <v>42.369098710692</v>
+      </c>
+      <c r="S21">
+        <v>0.01445826273167764</v>
+      </c>
+      <c r="T21">
+        <v>0.01445826273167764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.660166</v>
+      </c>
+      <c r="H22">
+        <v>1.980498</v>
+      </c>
+      <c r="I22">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J22">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.531490333333333</v>
+      </c>
+      <c r="N22">
+        <v>4.594471</v>
+      </c>
+      <c r="O22">
+        <v>0.0340102626143302</v>
+      </c>
+      <c r="P22">
+        <v>0.03401026261433021</v>
+      </c>
+      <c r="Q22">
+        <v>1.011037847395333</v>
+      </c>
+      <c r="R22">
+        <v>9.099340626558002</v>
+      </c>
+      <c r="S22">
+        <v>0.003105108710528316</v>
+      </c>
+      <c r="T22">
+        <v>0.003105108710528317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.660166</v>
+      </c>
+      <c r="H23">
+        <v>1.980498</v>
+      </c>
+      <c r="I23">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J23">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N23">
+        <v>13.864039</v>
+      </c>
+      <c r="O23">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P23">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q23">
+        <v>3.050855723491333</v>
+      </c>
+      <c r="R23">
+        <v>27.457701511422</v>
+      </c>
+      <c r="S23">
+        <v>0.009369816081547643</v>
+      </c>
+      <c r="T23">
+        <v>0.009369816081547643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.660166</v>
+      </c>
+      <c r="H24">
+        <v>1.980498</v>
+      </c>
+      <c r="I24">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J24">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.843537</v>
+      </c>
+      <c r="O24">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P24">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q24">
+        <v>0.4056801490473333</v>
+      </c>
+      <c r="R24">
+        <v>3.651121341426</v>
+      </c>
+      <c r="S24">
+        <v>0.001245928594800411</v>
+      </c>
+      <c r="T24">
+        <v>0.001245928594800411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.660166</v>
+      </c>
+      <c r="H25">
+        <v>1.980498</v>
+      </c>
+      <c r="I25">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J25">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N25">
+        <v>67.456447</v>
+      </c>
+      <c r="O25">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P25">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q25">
+        <v>14.84415093006733</v>
+      </c>
+      <c r="R25">
+        <v>133.597358370606</v>
+      </c>
+      <c r="S25">
+        <v>0.04558949249238742</v>
+      </c>
+      <c r="T25">
+        <v>0.04558949249238742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.180848</v>
+      </c>
+      <c r="I26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.646358666666666</v>
+      </c>
+      <c r="N26">
+        <v>25.939076</v>
+      </c>
+      <c r="O26">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="P26">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="Q26">
+        <v>0.5212255573831112</v>
+      </c>
+      <c r="R26">
+        <v>4.691030016448</v>
+      </c>
+      <c r="S26">
+        <v>0.001600792712705866</v>
+      </c>
+      <c r="T26">
+        <v>0.001600792712705866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.180848</v>
+      </c>
+      <c r="I27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.131051333333333</v>
+      </c>
+      <c r="N27">
+        <v>21.393154</v>
+      </c>
+      <c r="O27">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="P27">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="Q27">
+        <v>0.4298787905102222</v>
+      </c>
+      <c r="R27">
+        <v>3.868909114592</v>
+      </c>
+      <c r="S27">
+        <v>0.001320247684419998</v>
+      </c>
+      <c r="T27">
+        <v>0.001320247684419998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.180848</v>
+      </c>
+      <c r="I28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.531490333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.594471</v>
+      </c>
+      <c r="O28">
+        <v>0.0340102626143302</v>
+      </c>
+      <c r="P28">
+        <v>0.03401026261433021</v>
+      </c>
+      <c r="Q28">
+        <v>0.09232232126755557</v>
+      </c>
+      <c r="R28">
+        <v>0.8309008914080002</v>
+      </c>
+      <c r="S28">
+        <v>0.0002835411598909087</v>
+      </c>
+      <c r="T28">
+        <v>0.0002835411598909088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.180848</v>
+      </c>
+      <c r="I29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N29">
+        <v>13.864039</v>
+      </c>
+      <c r="O29">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P29">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q29">
+        <v>0.2785870805635555</v>
+      </c>
+      <c r="R29">
+        <v>2.507283725072</v>
+      </c>
+      <c r="S29">
+        <v>0.0008555991971290697</v>
+      </c>
+      <c r="T29">
+        <v>0.0008555991971290698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.180848</v>
+      </c>
+      <c r="I30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.843537</v>
+      </c>
+      <c r="O30">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P30">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q30">
+        <v>0.03704444215288889</v>
+      </c>
+      <c r="R30">
+        <v>0.333399979376</v>
+      </c>
+      <c r="S30">
+        <v>0.0001137712305250825</v>
+      </c>
+      <c r="T30">
+        <v>0.0001137712305250825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.180848</v>
+      </c>
+      <c r="I31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N31">
+        <v>67.456447</v>
+      </c>
+      <c r="O31">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P31">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q31">
+        <v>1.355484836339556</v>
+      </c>
+      <c r="R31">
+        <v>12.199363527056</v>
+      </c>
+      <c r="S31">
+        <v>0.004162977462367182</v>
+      </c>
+      <c r="T31">
+        <v>0.004162977462367183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H32">
+        <v>6.238909</v>
+      </c>
+      <c r="I32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.646358666666666</v>
+      </c>
+      <c r="N32">
+        <v>25.939076</v>
+      </c>
+      <c r="O32">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="P32">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="Q32">
+        <v>17.98128163423155</v>
+      </c>
+      <c r="R32">
+        <v>161.831534708084</v>
+      </c>
+      <c r="S32">
+        <v>0.05522427708592321</v>
+      </c>
+      <c r="T32">
+        <v>0.05522427708592321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H33">
+        <v>6.238909</v>
+      </c>
+      <c r="I33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>7.131051333333333</v>
+      </c>
+      <c r="N33">
+        <v>21.393154</v>
+      </c>
+      <c r="O33">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="P33">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="Q33">
+        <v>14.82999344766511</v>
+      </c>
+      <c r="R33">
+        <v>133.469941028986</v>
+      </c>
+      <c r="S33">
+        <v>0.04554601190257612</v>
+      </c>
+      <c r="T33">
+        <v>0.04554601190257612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H34">
+        <v>6.238909</v>
+      </c>
+      <c r="I34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>1.531490333333333</v>
+      </c>
+      <c r="N34">
+        <v>4.594471</v>
+      </c>
+      <c r="O34">
+        <v>0.0340102626143302</v>
+      </c>
+      <c r="P34">
+        <v>0.03401026261433021</v>
+      </c>
+      <c r="Q34">
+        <v>3.184942941348778</v>
+      </c>
+      <c r="R34">
+        <v>28.664486472139</v>
+      </c>
+      <c r="S34">
+        <v>0.009781625974928279</v>
+      </c>
+      <c r="T34">
+        <v>0.009781625974928281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H35">
+        <v>6.238909</v>
+      </c>
+      <c r="I35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N35">
+        <v>13.864039</v>
+      </c>
+      <c r="O35">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P35">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q35">
+        <v>9.610719743716775</v>
+      </c>
+      <c r="R35">
+        <v>86.49647769345098</v>
+      </c>
+      <c r="S35">
+        <v>0.02951653062992859</v>
+      </c>
+      <c r="T35">
+        <v>0.0295165306299286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H36">
+        <v>6.238909</v>
+      </c>
+      <c r="I36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N36">
+        <v>1.843537</v>
+      </c>
+      <c r="O36">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P36">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q36">
+        <v>1.277962175681444</v>
+      </c>
+      <c r="R36">
+        <v>11.501659581133</v>
+      </c>
+      <c r="S36">
+        <v>0.003924889155887882</v>
+      </c>
+      <c r="T36">
+        <v>0.003924889155887882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H37">
+        <v>6.238909</v>
+      </c>
+      <c r="I37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N37">
+        <v>67.456447</v>
+      </c>
+      <c r="O37">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P37">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q37">
+        <v>46.76162603292477</v>
+      </c>
+      <c r="R37">
+        <v>420.854634296323</v>
+      </c>
+      <c r="S37">
+        <v>0.1436147347870022</v>
+      </c>
+      <c r="T37">
+        <v>0.1436147347870022</v>
       </c>
     </row>
   </sheetData>
